--- a/Documents/Trajectory_Gantt_2.0.xlsx
+++ b/Documents/Trajectory_Gantt_2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a98965/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blake\Documents\GitHub\Trajectory\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19727532-1C23-2D4B-B2AC-F32AFF1A72A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153CE8FC-190E-4C45-A2D1-875D6FF398EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="3" r:id="rId1"/>
@@ -1062,27 +1062,27 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="3.5" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="2.6640625" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" customWidth="1"/>
-    <col min="14" max="14" width="5.5" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" customWidth="1"/>
-    <col min="19" max="21" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" customWidth="1"/>
+    <col min="19" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="16" thickBot="1"/>
+    <row r="1" spans="2:21" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:21">
       <c r="C2" s="72" t="s">
         <v>1</v>
@@ -1111,7 +1111,7 @@
       <c r="T2" s="73"/>
       <c r="U2" s="74"/>
     </row>
-    <row r="3" spans="2:21" ht="16" thickBot="1">
+    <row r="3" spans="2:21" ht="15.75" thickBot="1">
       <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:21" ht="16" thickBot="1">
+    <row r="4" spans="2:21" ht="15.75" thickBot="1">
       <c r="B4" s="25" t="s">
         <v>80</v>
       </c>
@@ -1169,11 +1169,11 @@
       </c>
       <c r="D4" s="23">
         <f>(H4+L4+P4+T4)</f>
-        <v>4300</v>
+        <v>4600</v>
       </c>
       <c r="E4" s="24">
         <f>(C4-D4)</f>
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="16">
@@ -1182,11 +1182,11 @@
       </c>
       <c r="H4" s="17">
         <f>(Gantt!G13)*100</f>
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="I4" s="18">
         <f>(G4-H4)</f>
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K4" s="22">
         <v>1000</v>
@@ -1224,7 +1224,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="5" spans="2:21" ht="16" thickBot="1">
+    <row r="5" spans="2:21" ht="15.75" thickBot="1">
       <c r="B5" s="9" t="s">
         <v>81</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="16" thickBot="1">
+    <row r="6" spans="2:21" ht="15.75" thickBot="1">
       <c r="B6" s="9" t="s">
         <v>83</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="16" thickBot="1">
+    <row r="7" spans="2:21" ht="15.75" thickBot="1">
       <c r="B7" s="9" t="s">
         <v>82</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="16" thickBot="1">
+    <row r="8" spans="2:21" ht="15.75" thickBot="1">
       <c r="B8" s="15" t="s">
         <v>1</v>
       </c>
@@ -1429,11 +1429,11 @@
       </c>
       <c r="D8" s="27">
         <f>SUM(D4:D7)</f>
-        <v>24400</v>
+        <v>24700</v>
       </c>
       <c r="E8" s="28">
         <f>SUM(E4:E7)</f>
-        <v>12200</v>
+        <v>11900</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="19">
@@ -1442,11 +1442,11 @@
       </c>
       <c r="H8" s="20">
         <f>SUM(H4:H7)</f>
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="I8" s="21">
         <f>SUM(I4:I7)</f>
-        <v>10500</v>
+        <v>10200</v>
       </c>
       <c r="K8" s="19">
         <f>SUM(K4:K7)</f>
@@ -1507,19 +1507,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BQ58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="125" zoomScaleNormal="191" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="191" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="16">
+    <row r="1" spans="1:68" ht="15.75">
       <c r="A1" s="50" t="s">
         <v>11</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>5</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="52" t="s">
         <v>110</v>
@@ -1952,10 +1952,10 @@
         <v>3</v>
       </c>
       <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12" s="52" t="s">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="H12" s="53" t="s">
+        <v>24</v>
       </c>
       <c r="AG12" s="57"/>
       <c r="AH12" s="57"/>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="G13">
         <f>SUM(G3:G12)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:68">
@@ -3098,7 +3098,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" s="5" t="s">
@@ -3363,13 +3363,13 @@
       <selection activeCell="G29" activeCellId="1" sqref="G28 G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="19" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="19" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -4138,7 +4138,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="16" thickBot="1">
+    <row r="31" spans="1:19" ht="15.75" thickBot="1">
       <c r="A31" s="42"/>
       <c r="B31" s="43" t="s">
         <v>1</v>
@@ -4171,7 +4171,7 @@
       <selection activeCell="G14" sqref="G14:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">

--- a/Documents/Trajectory_Gantt_2.0.xlsx
+++ b/Documents/Trajectory_Gantt_2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blake\Documents\GitHub\Trajectory\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Satan\Documents\GitHub\Trajectory\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153CE8FC-190E-4C45-A2D1-875D6FF398EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E1C956-6E66-437A-9838-D6C971FB6890}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="3" r:id="rId1"/>
@@ -27,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="114">
   <si>
     <t>Meetings</t>
   </si>
@@ -376,6 +374,9 @@
   </si>
   <si>
     <t>Pause Menu</t>
+  </si>
+  <si>
+    <t>Weapon/Player integration</t>
   </si>
 </sst>
 </file>
@@ -443,7 +444,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,6 +502,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9795"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -729,7 +742,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -742,6 +754,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1058,60 +1073,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:U10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="94" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="3.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" customWidth="1"/>
-    <col min="19" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" customWidth="1"/>
+    <col min="14" max="14" width="5.44140625" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" customWidth="1"/>
+    <col min="19" max="21" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15.75" thickBot="1"/>
+    <row r="1" spans="2:21" ht="15" thickBot="1"/>
     <row r="2" spans="2:21">
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="72" t="s">
+      <c r="G2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74"/>
-      <c r="K2" s="72" t="s">
+      <c r="H2" s="72"/>
+      <c r="I2" s="73"/>
+      <c r="K2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="73"/>
-      <c r="M2" s="74"/>
-      <c r="O2" s="72" t="s">
+      <c r="L2" s="72"/>
+      <c r="M2" s="73"/>
+      <c r="O2" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="74"/>
-      <c r="S2" s="72" t="s">
+      <c r="P2" s="72"/>
+      <c r="Q2" s="73"/>
+      <c r="S2" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="T2" s="73"/>
-      <c r="U2" s="74"/>
-    </row>
-    <row r="3" spans="2:21" ht="15.75" thickBot="1">
+      <c r="T2" s="72"/>
+      <c r="U2" s="73"/>
+    </row>
+    <row r="3" spans="2:21" ht="15" thickBot="1">
       <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1159,7 +1174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:21" ht="15.75" thickBot="1">
+    <row r="4" spans="2:21" ht="15" thickBot="1">
       <c r="B4" s="25" t="s">
         <v>80</v>
       </c>
@@ -1169,11 +1184,11 @@
       </c>
       <c r="D4" s="23">
         <f>(H4+L4+P4+T4)</f>
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="E4" s="24">
         <f>(C4-D4)</f>
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="16">
@@ -1193,11 +1208,11 @@
       </c>
       <c r="L4" s="23">
         <f>Meetings!B4*100</f>
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="M4" s="24">
         <f>(K4-L4)</f>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O4" s="22">
         <f>(SA!C8)*100</f>
@@ -1224,7 +1239,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="5" spans="2:21" ht="15.75" thickBot="1">
+    <row r="5" spans="2:21" ht="15" thickBot="1">
       <c r="B5" s="9" t="s">
         <v>81</v>
       </c>
@@ -1234,11 +1249,11 @@
       </c>
       <c r="D5" s="17">
         <f>(H5+L5 +P5+T4)</f>
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="E5" s="18">
         <f t="shared" ref="E5:E7" si="1">(C5-D5)</f>
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="16">
@@ -1258,11 +1273,11 @@
       </c>
       <c r="L5" s="17">
         <f>Meetings!B5*100</f>
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M5" s="18">
         <f t="shared" ref="M5:M7" si="3">(K5-L5)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O5" s="16">
         <f>(SA!C15)*100</f>
@@ -1289,21 +1304,21 @@
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="15.75" thickBot="1">
+    <row r="6" spans="2:21" ht="15" thickBot="1">
       <c r="B6" s="9" t="s">
         <v>83</v>
       </c>
       <c r="C6" s="16">
         <f t="shared" si="0"/>
-        <v>9300</v>
+        <v>8500</v>
       </c>
       <c r="D6" s="17">
         <f>(H6+L6 +P6+T4)</f>
-        <v>6700</v>
+        <v>7400</v>
       </c>
       <c r="E6" s="18">
         <f t="shared" si="1"/>
-        <v>2600</v>
+        <v>1100</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="16">
@@ -1312,26 +1327,26 @@
       </c>
       <c r="H6" s="17">
         <f>(Gantt!G40)*100</f>
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="I6" s="18">
         <f t="shared" si="2"/>
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="K6" s="16">
         <v>1000</v>
       </c>
       <c r="L6" s="17">
         <f>Meetings!B6*100</f>
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M6" s="18">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O6" s="16">
         <f>(SA!C30)*100</f>
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="P6" s="17">
         <f>(SA!D23)*100</f>
@@ -1339,7 +1354,7 @@
       </c>
       <c r="Q6" s="18">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="S6" s="22">
         <f>(Overhead!G8)*100</f>
@@ -1347,14 +1362,14 @@
       </c>
       <c r="T6" s="22">
         <f>(Overhead!G20)*100</f>
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="U6" s="22">
         <f t="shared" si="5"/>
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" ht="15.75" thickBot="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" ht="15" thickBot="1">
       <c r="B7" s="9" t="s">
         <v>82</v>
       </c>
@@ -1419,21 +1434,21 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="15.75" thickBot="1">
+    <row r="8" spans="2:21" ht="15" thickBot="1">
       <c r="B8" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="26">
         <f>SUM(C4:C7)</f>
-        <v>36600</v>
+        <v>35800</v>
       </c>
       <c r="D8" s="27">
         <f>SUM(D4:D7)</f>
-        <v>24700</v>
+        <v>25700</v>
       </c>
       <c r="E8" s="28">
         <f>SUM(E4:E7)</f>
-        <v>11900</v>
+        <v>10100</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="19">
@@ -1442,11 +1457,11 @@
       </c>
       <c r="H8" s="20">
         <f>SUM(H4:H7)</f>
-        <v>9100</v>
+        <v>9700</v>
       </c>
       <c r="I8" s="21">
         <f>SUM(I4:I7)</f>
-        <v>10200</v>
+        <v>9600</v>
       </c>
       <c r="K8" s="19">
         <f>SUM(K4:K7)</f>
@@ -1454,15 +1469,15 @@
       </c>
       <c r="L8" s="20">
         <f>SUM(L4:L7)</f>
-        <v>3300</v>
+        <v>3700</v>
       </c>
       <c r="M8" s="21">
         <f>SUM(M4:M7)</f>
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="O8" s="26">
         <f>SUM(O4:O7)</f>
-        <v>13300</v>
+        <v>12500</v>
       </c>
       <c r="P8" s="27">
         <f>SUM(P4:P7)</f>
@@ -1470,7 +1485,7 @@
       </c>
       <c r="Q8" s="28">
         <f>SUM(Q4:Q7)</f>
-        <v>5400</v>
+        <v>4600</v>
       </c>
       <c r="S8" s="26">
         <f>SUM(S4:S7)</f>
@@ -1478,11 +1493,11 @@
       </c>
       <c r="T8" s="27">
         <f>SUM(T4:T7)</f>
-        <v>4100</v>
+        <v>5000</v>
       </c>
       <c r="U8" s="28">
         <f>SUM(U4:U7)</f>
-        <v>5100</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="10" spans="2:21">
@@ -1507,19 +1522,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BQ58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="191" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A34" zoomScale="125" zoomScaleNormal="191" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="15.75">
+    <row r="1" spans="1:68" ht="15.6">
       <c r="A1" s="50" t="s">
         <v>11</v>
       </c>
@@ -2388,12 +2403,12 @@
       <c r="BQ28" s="55"/>
     </row>
     <row r="29" spans="1:69">
-      <c r="A29" s="75" t="s">
+      <c r="A29" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
       <c r="E29">
         <v>1</v>
       </c>
@@ -2412,12 +2427,12 @@
       <c r="L29" s="53"/>
     </row>
     <row r="30" spans="1:69">
-      <c r="A30" s="75" t="s">
+      <c r="A30" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
       <c r="E30">
         <v>2</v>
       </c>
@@ -2437,12 +2452,12 @@
       <c r="O30" s="61"/>
     </row>
     <row r="31" spans="1:69">
-      <c r="A31" s="75" t="s">
+      <c r="A31" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
       <c r="E31">
         <v>3</v>
       </c>
@@ -2469,12 +2484,12 @@
       <c r="Y31" s="53"/>
     </row>
     <row r="32" spans="1:69">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="75"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
       <c r="E32">
         <v>4</v>
       </c>
@@ -2482,7 +2497,7 @@
         <v>2</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H32" s="62" t="s">
         <v>111</v>
@@ -2493,12 +2508,12 @@
       <c r="AA32" s="52"/>
     </row>
     <row r="33" spans="1:69">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
       <c r="E33">
         <v>5</v>
       </c>
@@ -2516,12 +2531,12 @@
       <c r="K33" s="53"/>
     </row>
     <row r="34" spans="1:69">
-      <c r="A34" s="75" t="s">
+      <c r="A34" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
       <c r="E34">
         <v>6</v>
       </c>
@@ -2529,35 +2544,35 @@
         <v>4</v>
       </c>
       <c r="G34">
-        <v>2</v>
-      </c>
-      <c r="H34" s="62" t="s">
-        <v>111</v>
-      </c>
-      <c r="L34" s="58">
-        <v>5</v>
-      </c>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="71"/>
-      <c r="S34" s="71"/>
-      <c r="T34" s="71"/>
-      <c r="U34" s="71"/>
-      <c r="V34" s="71"/>
-      <c r="W34" s="71"/>
-      <c r="X34" s="71"/>
-      <c r="Y34" s="71"/>
+        <v>4</v>
+      </c>
+      <c r="H34" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" s="61">
+        <v>5</v>
+      </c>
+      <c r="M34" s="53"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="76"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="76"/>
+      <c r="S34" s="76"/>
+      <c r="T34" s="76"/>
+      <c r="U34" s="76"/>
+      <c r="V34" s="76"/>
+      <c r="W34" s="76"/>
+      <c r="X34" s="76"/>
+      <c r="Y34" s="76"/>
     </row>
     <row r="35" spans="1:69">
-      <c r="A35" s="75" t="s">
+      <c r="A35" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="75"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="75"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
       <c r="E35">
         <v>7</v>
       </c>
@@ -2581,12 +2596,12 @@
       <c r="AI35" s="2"/>
     </row>
     <row r="36" spans="1:69">
-      <c r="A36" s="75" t="s">
+      <c r="A36" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="75"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
       <c r="E36">
         <v>8</v>
       </c>
@@ -2602,20 +2617,23 @@
       <c r="AR36" s="59"/>
     </row>
     <row r="37" spans="1:69">
-      <c r="A37" s="75" t="s">
+      <c r="A37" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="75"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
       <c r="E37">
         <v>9</v>
       </c>
       <c r="F37">
         <v>4</v>
       </c>
-      <c r="H37" s="63" t="s">
-        <v>22</v>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37" s="75" t="s">
+        <v>111</v>
       </c>
       <c r="AM37" s="2"/>
       <c r="AN37" s="2"/>
@@ -2624,12 +2642,12 @@
       <c r="AR37" s="59"/>
     </row>
     <row r="38" spans="1:69">
-      <c r="A38" s="75" t="s">
+      <c r="A38" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="75"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="75"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
       <c r="E38">
         <v>10</v>
       </c>
@@ -2643,12 +2661,12 @@
       <c r="AR38" s="57"/>
     </row>
     <row r="39" spans="1:69">
-      <c r="A39" s="75" t="s">
+      <c r="A39" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="75"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
       <c r="E39">
         <v>11</v>
       </c>
@@ -2675,7 +2693,7 @@
       </c>
       <c r="G40">
         <f>SUM(G29:G39)</f>
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:69">
@@ -3095,10 +3113,10 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView zoomScale="180" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" s="5" t="s">
@@ -3119,7 +3137,9 @@
       <c r="G1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="77">
+        <v>43935</v>
+      </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -3144,7 +3164,9 @@
       <c r="G2" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -3170,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="5">
         <v>0</v>
@@ -3190,8 +3212,7 @@
         <v>80</v>
       </c>
       <c r="B4" s="5">
-        <f>SUMIF(C4:L4,A$10,C$3:Z$3)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -3203,8 +3224,12 @@
       <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -3215,8 +3240,7 @@
         <v>81</v>
       </c>
       <c r="B5" s="5">
-        <f>SUMIF(C5:L5,A$10,C$3:Z$3)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -3230,7 +3254,12 @@
       <c r="F5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
@@ -3240,8 +3269,7 @@
         <v>83</v>
       </c>
       <c r="B6" s="5">
-        <f>SUMIF(C6:L6,A$10,C$3:Z$3)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -3255,8 +3283,12 @@
       <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -3267,7 +3299,6 @@
         <v>82</v>
       </c>
       <c r="B7" s="5">
-        <f>SUMIF(C7:L7,A$10,C$3:Z$3)</f>
         <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -3282,7 +3313,9 @@
       <c r="F7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -3295,7 +3328,7 @@
       </c>
       <c r="B8" s="7">
         <f>SUM(B4:B7)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" ref="C8:L8" si="0">COUNTIF(C4:C7,"*ü*") * C3</f>
@@ -3315,11 +3348,11 @@
       </c>
       <c r="G8" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" si="0"/>
@@ -3360,16 +3393,16 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="G29" activeCellId="1" sqref="G28 G29"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="19" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="19" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -4024,7 +4057,7 @@
         <v>10</v>
       </c>
       <c r="D26" s="38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -4049,7 +4082,7 @@
         <v>105</v>
       </c>
       <c r="C27" s="66">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" s="38">
         <v>5</v>
@@ -4077,10 +4110,10 @@
         <v>106</v>
       </c>
       <c r="C28" s="66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" s="38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -4105,7 +4138,7 @@
         <v>107</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D29" s="38">
         <v>5</v>
@@ -4131,21 +4164,21 @@
       </c>
       <c r="C30" s="36">
         <f>SUM(C24:C29)</f>
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D30" s="40">
         <f>SUM(D24:D29)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15.75" thickBot="1">
+    <row r="31" spans="1:19" ht="15" thickBot="1">
       <c r="A31" s="42"/>
       <c r="B31" s="43" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="44">
         <f>SUM(C8,C15,C23,C30)</f>
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D31" s="45">
         <f>SUM(D8,D15,D23,D30)</f>
@@ -4168,10 +4201,10 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:G20"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -4347,7 +4380,7 @@
         <v>4</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4381,7 +4414,7 @@
         <v>3</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" t="s">
         <v>8</v>
@@ -4401,7 +4434,7 @@
         <v>5</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4418,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4456,7 +4489,7 @@
       </c>
       <c r="G20">
         <f>SUM(G14:G19)</f>
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Trajectory_Gantt_2.0.xlsx
+++ b/Documents/Trajectory_Gantt_2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Satan\Documents\GitHub\Trajectory\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas Thoms\Desktop\Idaho\2020 1Spring\CS 383\Trajectory\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E1C956-6E66-437A-9838-D6C971FB6890}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F7FF4F-D465-4835-B368-3C8AC7E71CA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="21600" windowHeight="13869" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -742,6 +744,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -754,9 +759,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1073,58 +1075,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6"/>
   <cols>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="3.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" customWidth="1"/>
-    <col min="10" max="10" width="2.6640625" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.3046875" customWidth="1"/>
+    <col min="4" max="4" width="13.69140625" customWidth="1"/>
+    <col min="5" max="5" width="13.3046875" customWidth="1"/>
+    <col min="6" max="6" width="3.4609375" customWidth="1"/>
+    <col min="7" max="7" width="15.3046875" customWidth="1"/>
+    <col min="8" max="8" width="12.3046875" customWidth="1"/>
+    <col min="9" max="9" width="14.4609375" customWidth="1"/>
+    <col min="10" max="10" width="2.69140625" customWidth="1"/>
+    <col min="11" max="11" width="13.69140625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" customWidth="1"/>
-    <col min="14" max="14" width="5.44140625" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" customWidth="1"/>
-    <col min="19" max="21" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.07421875" customWidth="1"/>
+    <col min="14" max="14" width="5.4609375" customWidth="1"/>
+    <col min="15" max="15" width="12.3046875" customWidth="1"/>
+    <col min="16" max="16" width="14.69140625" customWidth="1"/>
+    <col min="17" max="17" width="11.3046875" customWidth="1"/>
+    <col min="19" max="21" width="9.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:21" ht="15" thickBot="1"/>
     <row r="2" spans="2:21">
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
-      <c r="K2" s="71" t="s">
+      <c r="H2" s="75"/>
+      <c r="I2" s="76"/>
+      <c r="K2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="72"/>
-      <c r="M2" s="73"/>
-      <c r="O2" s="71" t="s">
+      <c r="L2" s="75"/>
+      <c r="M2" s="76"/>
+      <c r="O2" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="73"/>
-      <c r="S2" s="71" t="s">
+      <c r="P2" s="75"/>
+      <c r="Q2" s="76"/>
+      <c r="S2" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="T2" s="72"/>
-      <c r="U2" s="73"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="76"/>
     </row>
     <row r="3" spans="2:21" ht="15" thickBot="1">
       <c r="C3" s="9" t="s">
@@ -1249,11 +1249,11 @@
       </c>
       <c r="D5" s="17">
         <f>(H5+L5 +P5+T4)</f>
-        <v>5900</v>
+        <v>7800</v>
       </c>
       <c r="E5" s="18">
         <f t="shared" ref="E5:E7" si="1">(C5-D5)</f>
-        <v>3400</v>
+        <v>1500</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="16">
@@ -1262,11 +1262,11 @@
       </c>
       <c r="H5" s="17">
         <f>(Gantt!G27)*100</f>
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="I5" s="18">
         <f t="shared" ref="I5:I7" si="2">(G5-H5)</f>
-        <v>3200</v>
+        <v>1300</v>
       </c>
       <c r="K5" s="16">
         <v>1000</v>
@@ -1444,11 +1444,11 @@
       </c>
       <c r="D8" s="27">
         <f>SUM(D4:D7)</f>
-        <v>25700</v>
+        <v>27600</v>
       </c>
       <c r="E8" s="28">
         <f>SUM(E4:E7)</f>
-        <v>10100</v>
+        <v>8200</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="19">
@@ -1457,11 +1457,11 @@
       </c>
       <c r="H8" s="20">
         <f>SUM(H4:H7)</f>
-        <v>9700</v>
+        <v>11600</v>
       </c>
       <c r="I8" s="21">
         <f>SUM(I4:I7)</f>
-        <v>9600</v>
+        <v>7700</v>
       </c>
       <c r="K8" s="19">
         <f>SUM(K4:K7)</f>
@@ -1522,19 +1522,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BQ58"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="125" zoomScaleNormal="191" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.4609375" customWidth="1"/>
+    <col min="3" max="3" width="15.69140625" customWidth="1"/>
+    <col min="6" max="6" width="10.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="15.6">
+    <row r="1" spans="1:68" ht="15.9">
       <c r="A1" s="50" t="s">
         <v>11</v>
       </c>
@@ -2121,17 +2119,17 @@
         <v>4</v>
       </c>
       <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
     </row>
     <row r="19" spans="1:69">
       <c r="A19" t="s">
@@ -2146,14 +2144,14 @@
       <c r="G19">
         <v>2</v>
       </c>
-      <c r="H19" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="O19" s="58">
+      <c r="H19" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="61">
         <v>4</v>
       </c>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
       <c r="R19" s="54"/>
       <c r="S19" s="54"/>
       <c r="T19" s="54"/>
@@ -2174,14 +2172,14 @@
       <c r="G20">
         <v>2</v>
       </c>
-      <c r="H20" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="O20" s="58">
+      <c r="H20" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" s="61">
         <v>4</v>
       </c>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
     </row>
     <row r="21" spans="1:69">
       <c r="A21" s="59" t="s">
@@ -2197,7 +2195,7 @@
         <v>6</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H21" s="52" t="s">
         <v>23</v>
@@ -2222,7 +2220,7 @@
         <v>6</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22" s="52" t="s">
         <v>23</v>
@@ -2246,17 +2244,20 @@
       <c r="F23">
         <v>6</v>
       </c>
-      <c r="H23" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD23" s="57">
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD23" s="58">
         <v>8</v>
       </c>
-      <c r="AE23" s="2"/>
-      <c r="AF23" s="2"/>
-      <c r="AG23" s="2"/>
-      <c r="AH23" s="2"/>
-      <c r="AI23" s="2"/>
+      <c r="AE23" s="58"/>
+      <c r="AF23" s="58"/>
+      <c r="AG23" s="58"/>
+      <c r="AH23" s="58"/>
+      <c r="AI23" s="58"/>
     </row>
     <row r="24" spans="1:69">
       <c r="A24" t="s">
@@ -2268,17 +2269,20 @@
       <c r="F24">
         <v>6</v>
       </c>
-      <c r="H24" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="X24" s="57">
-        <v>5</v>
-      </c>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="X24" s="58">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="58"/>
+      <c r="Z24" s="58"/>
+      <c r="AA24" s="58"/>
+      <c r="AB24" s="58"/>
+      <c r="AC24" s="58"/>
     </row>
     <row r="25" spans="1:69">
       <c r="A25" t="s">
@@ -2290,13 +2294,16 @@
       <c r="F25">
         <v>4</v>
       </c>
-      <c r="H25" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
     </row>
     <row r="26" spans="1:69">
       <c r="A26" t="s">
@@ -2308,13 +2315,16 @@
       <c r="F26">
         <v>4</v>
       </c>
-      <c r="H26" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
     </row>
     <row r="27" spans="1:69">
       <c r="A27" t="s">
@@ -2326,7 +2336,7 @@
       </c>
       <c r="G27">
         <f>SUM(G15:G26)</f>
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:69">
@@ -2403,12 +2413,12 @@
       <c r="BQ28" s="55"/>
     </row>
     <row r="29" spans="1:69">
-      <c r="A29" s="74" t="s">
+      <c r="A29" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="74"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
       <c r="E29">
         <v>1</v>
       </c>
@@ -2427,12 +2437,12 @@
       <c r="L29" s="53"/>
     </row>
     <row r="30" spans="1:69">
-      <c r="A30" s="74" t="s">
+      <c r="A30" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="74"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
       <c r="E30">
         <v>2</v>
       </c>
@@ -2452,12 +2462,12 @@
       <c r="O30" s="61"/>
     </row>
     <row r="31" spans="1:69">
-      <c r="A31" s="74" t="s">
+      <c r="A31" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="74"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
       <c r="E31">
         <v>3</v>
       </c>
@@ -2484,12 +2494,12 @@
       <c r="Y31" s="53"/>
     </row>
     <row r="32" spans="1:69">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="74"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
       <c r="E32">
         <v>4</v>
       </c>
@@ -2508,12 +2518,12 @@
       <c r="AA32" s="52"/>
     </row>
     <row r="33" spans="1:69">
-      <c r="A33" s="74" t="s">
+      <c r="A33" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="74"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
       <c r="E33">
         <v>5</v>
       </c>
@@ -2531,12 +2541,12 @@
       <c r="K33" s="53"/>
     </row>
     <row r="34" spans="1:69">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="74"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
       <c r="E34">
         <v>6</v>
       </c>
@@ -2555,24 +2565,24 @@
       <c r="M34" s="53"/>
       <c r="N34" s="53"/>
       <c r="O34" s="53"/>
-      <c r="P34" s="76"/>
-      <c r="Q34" s="76"/>
-      <c r="R34" s="76"/>
-      <c r="S34" s="76"/>
-      <c r="T34" s="76"/>
-      <c r="U34" s="76"/>
-      <c r="V34" s="76"/>
-      <c r="W34" s="76"/>
-      <c r="X34" s="76"/>
-      <c r="Y34" s="76"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="72"/>
+      <c r="S34" s="72"/>
+      <c r="T34" s="72"/>
+      <c r="U34" s="72"/>
+      <c r="V34" s="72"/>
+      <c r="W34" s="72"/>
+      <c r="X34" s="72"/>
+      <c r="Y34" s="72"/>
     </row>
     <row r="35" spans="1:69">
-      <c r="A35" s="74" t="s">
+      <c r="A35" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="74"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
       <c r="E35">
         <v>7</v>
       </c>
@@ -2596,12 +2606,12 @@
       <c r="AI35" s="2"/>
     </row>
     <row r="36" spans="1:69">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="74"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="74"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
       <c r="E36">
         <v>8</v>
       </c>
@@ -2617,12 +2627,12 @@
       <c r="AR36" s="59"/>
     </row>
     <row r="37" spans="1:69">
-      <c r="A37" s="74" t="s">
+      <c r="A37" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="74"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
       <c r="E37">
         <v>9</v>
       </c>
@@ -2632,7 +2642,7 @@
       <c r="G37">
         <v>2</v>
       </c>
-      <c r="H37" s="75" t="s">
+      <c r="H37" s="71" t="s">
         <v>111</v>
       </c>
       <c r="AM37" s="2"/>
@@ -2642,12 +2652,12 @@
       <c r="AR37" s="59"/>
     </row>
     <row r="38" spans="1:69">
-      <c r="A38" s="74" t="s">
+      <c r="A38" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="74"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
       <c r="E38">
         <v>10</v>
       </c>
@@ -2661,12 +2671,12 @@
       <c r="AR38" s="57"/>
     </row>
     <row r="39" spans="1:69">
-      <c r="A39" s="74" t="s">
+      <c r="A39" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="74"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
       <c r="E39">
         <v>11</v>
       </c>
@@ -3116,7 +3126,7 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" s="5" t="s">
@@ -3137,7 +3147,7 @@
       <c r="G1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="77">
+      <c r="H1" s="73">
         <v>43935</v>
       </c>
       <c r="I1" s="5"/>
@@ -3396,13 +3406,13 @@
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="19" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.69140625" customWidth="1"/>
+    <col min="3" max="3" width="14.4609375" customWidth="1"/>
+    <col min="4" max="4" width="10.4609375" customWidth="1"/>
+    <col min="5" max="19" width="3.69140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -4204,7 +4214,7 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="14.6"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
